--- a/Arm_stepper_BOM.xlsx
+++ b/Arm_stepper_BOM.xlsx
@@ -861,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="60" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="60" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Arm_stepper_BOM.xlsx
+++ b/Arm_stepper_BOM.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="25600" windowHeight="14260" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arm_stepper" sheetId="1" r:id="rId1"/>
+    <sheet name="buy " sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="207">
   <si>
     <t>Id</t>
   </si>
@@ -44,9 +45,6 @@
     <t>Designation</t>
   </si>
   <si>
-    <t>R44,R43,R42,R41,R41,R42,R43,R44</t>
-  </si>
-  <si>
     <t>R_0805_2012Metric</t>
   </si>
   <si>
@@ -146,18 +144,12 @@
     <t>C13,C13</t>
   </si>
   <si>
-    <t>C7,C1,C2,C4,C5,C7,C26,C27,C34,C35</t>
-  </si>
-  <si>
     <t>100nF</t>
   </si>
   <si>
     <t>C3,C3</t>
   </si>
   <si>
-    <t>5.6n</t>
-  </si>
-  <si>
     <t>C22,C22</t>
   </si>
   <si>
@@ -191,12 +183,6 @@
     <t>2.2uF</t>
   </si>
   <si>
-    <t>C14</t>
-  </si>
-  <si>
-    <t>100n</t>
-  </si>
-  <si>
     <t>D2</t>
   </si>
   <si>
@@ -299,9 +285,6 @@
     <t>R1</t>
   </si>
   <si>
-    <t>R2,R5,R6,R7,R28,R29,R30,R32</t>
-  </si>
-  <si>
     <t>10k</t>
   </si>
   <si>
@@ -515,9 +498,6 @@
     <t>https://www.mouser.it/ProductDetail/Dialight/599-0120-007F?qs=sGAEpiMZZMseGfSY3csMkdgyOOAg6kv2gkssf8Flls80FDQVhjjyfA%3D%3D</t>
   </si>
   <si>
-    <t>https://www.mouser.it/ProductDetail/Yageo/AF0402FR-07560RL?qs=sGAEpiMZZMu61qfTUdNhG1L47wQHmAQXIIyociUy%252B0Gdpp%2FPQk96dQ%3D%3D</t>
-  </si>
-  <si>
     <t>https://www.mouser.it/ProductDetail/Bourns/CRM2512-FX-R300ELF?qs=sGAEpiMZZMtlleCFQhR%2FzQpjojD9Mr9iSQB6Cv%2F7bC4%3D</t>
   </si>
   <si>
@@ -525,13 +505,157 @@
   </si>
   <si>
     <t>https://www.mouser.it/ProductDetail/Diodes-Incorporated/1N4148WQ-7-F?qs=sGAEpiMZZMtoHjESLttvkrYQeG15545bIA3Obehqi94V9%252B8MmDaMfQ%3D%3D</t>
+  </si>
+  <si>
+    <t>R2,R5,R6,R7,R28,R29,R30,R32, R44,R43,R42,R41,R41,R42,R43,R44</t>
+  </si>
+  <si>
+    <t>5.6nF</t>
+  </si>
+  <si>
+    <t>https://www.mouser.it/ProductDetail/Phoenix-Contact/1862068?qs=sGAEpiMZZMvZTcaMAxB2AP4Dk8QYXkaByrZ%252BBrCs6FNYorXlVwo7sw%3D%3D</t>
+  </si>
+  <si>
+    <t>C7,C1,C2,C4,C5,C7,C26,C27,C34,C35,C14</t>
+  </si>
+  <si>
+    <t>https://www.mouser.it/ProductDetail/AVX/08055C224K4T4A?qs=sGAEpiMZZMvsSlwiRhF8qkKr61sSqDMWtN2YIh5FqwQ%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.it/ProductDetail/KEMET/C0805C104K1RECAUTO?qs=sGAEpiMZZMvsSlwiRhF8qtsBU8Zhqm2R5uwtDgY3T5aPn%2F1EzUFwcg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.it/ProductDetail/KEMET/C0805C561J1GACAUTO?qs=sGAEpiMZZMvsSlwiRhF8qlP5GzhJbSPcCE8REXwEFtg%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.it/ProductDetail/KEMET/C0805X103K5RAC7210?qs=sGAEpiMZZMvsSlwiRhF8qsSAnxPfZ7zpeB2sWgf5Djn8lhDEfjaQyg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.it/ProductDetail/KEMET/C0805C102J2GECAUTO?qs=sGAEpiMZZMvsSlwiRhF8qtsBU8Zhqm2RrdZl%252Bk9yIL2%2FUGYmBnSMZw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.it/ProductDetail/KEMET/C0805X682K5RAC7800?qs=sGAEpiMZZMvsSlwiRhF8qgU%252BD98hYT87CVyxIANfKF4%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.it/ProductDetail/KEMET/C1210X104K2RACAUTO?qs=sGAEpiMZZMvsSlwiRhF8qtsBU8Zhqm2RseT1jM2T2FyE3wGOwADnMA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.it/ProductDetail/AVX/08055A200F4T2A?qs=sGAEpiMZZMvsSlwiRhF8qkyrPkkEgZV5D79bnjiI4uYMOGnxPbODYA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.it/ProductDetail/Wurth-Electronics/885012207079?qs=sGAEpiMZZMvsSlwiRhF8qunkWFWGyo%252BvLhy0gUqsnI5EtKbXFseJBg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.it/ProductDetail/Vishay/CRCW0805100KFKEAC?qs=sGAEpiMZZMvdGkrng054t0DrEhLhGh8gZRT9GjFuHWDV3jEqj5sSqw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.it/ProductDetail/Bourns/CRS0805AFX-1000ELF?qs=sGAEpiMZZMvdGkrng054t7z4BkURc4LzyNavEB7YIj8NE%252Bxi0WnnnA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.it/ProductDetail/Panasonic/ERJ-P06D3902V?qs=sGAEpiMZZMvdGkrng054tzSGWtpoOZZI4NLbD5Tb9OM%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.it/ProductDetail/Vishay/CRCW08052K20FKEAC?qs=sGAEpiMZZMvdGkrng054t0DrEhLhGh8glqB%2FtC%2FHs5NPZ4YojZ6o6w%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.it/ProductDetail/Yageo/SR0805FR-474K7L?qs=sGAEpiMZZMvdGkrng054t7z4BkURc4LzOCgfiD4K%252BzuOhiZ%2F%252BJ4WSg%3D%3D</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Descrizione</t>
+  </si>
+  <si>
+    <t>Numero</t>
+  </si>
+  <si>
+    <t>Rs</t>
+  </si>
+  <si>
+    <t>R 0805</t>
+  </si>
+  <si>
+    <t>numero schede</t>
+  </si>
+  <si>
+    <t>Phoenix_PT-1,5-4-3.5-H_1x04</t>
+  </si>
+  <si>
+    <t>1x04 3.5mm morsetto</t>
+  </si>
+  <si>
+    <t>Driver</t>
+  </si>
+  <si>
+    <t>Phoenix_MPT-2.54mm_2pol</t>
+  </si>
+  <si>
+    <t>1x02 2.54 morsetto</t>
+  </si>
+  <si>
+    <t>DSUB 9</t>
+  </si>
+  <si>
+    <t>Conn CAN</t>
+  </si>
+  <si>
+    <t>USB Micro B</t>
+  </si>
+  <si>
+    <t>Reset</t>
+  </si>
+  <si>
+    <t>Quartz 8MHZ</t>
+  </si>
+  <si>
+    <t>R 2512</t>
+  </si>
+  <si>
+    <t>NTC 10k</t>
+  </si>
+  <si>
+    <t>CAN Transceiver</t>
+  </si>
+  <si>
+    <t>DIODE USB SOT23-6</t>
+  </si>
+  <si>
+    <t>Phoenix PT-1x02_P3.50mm_</t>
+  </si>
+  <si>
+    <t>2x02 3.5 morsetto</t>
+  </si>
+  <si>
+    <t>https://www.mouser.it/ProductDetail/Vishay/CRCW08050000Z0EAC?qs=sGAEpiMZZMvdGkrng054t0DrEhLhGh8gEaI9goHnbBZ%252BGkO03RO9yg%3D%3D</t>
+  </si>
+  <si>
+    <t>BJT SOT 23</t>
+  </si>
+  <si>
+    <t>Ferrite bead</t>
+  </si>
+  <si>
+    <t>https://www.mouser.it/ProductDetail/Harwin/M20-9993645?qs=sGAEpiMZZMs%252BGHln7q6pmzlZUuX%2F53qjoUd4lDIDoT0%3D</t>
+  </si>
+  <si>
+    <t>36 pin male</t>
+  </si>
+  <si>
+    <t>2 pin female</t>
+  </si>
+  <si>
+    <t>https://www.mouser.it/ProductDetail/Samtec/SSA-102-W-T?qs=sGAEpiMZZMs%252BGHln7q6pm8Vn94ktop%2FJZkfHrviOfrJ35agkDc8hyg%3D%3D</t>
+  </si>
+  <si>
+    <t>Pin Strip 2,54</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -553,6 +677,13 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -577,10 +708,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -859,10 +996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="60" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="68" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -891,427 +1028,567 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="H1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2">
-        <v>8</v>
-      </c>
-      <c r="F2">
-        <v>560</v>
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <f>D2*$C$57</f>
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>4</v>
       </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E54" si="0">D3*$C$57</f>
+        <v>24</v>
+      </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>4</v>
       </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
-      <c r="F7">
-        <v>100</v>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D12">
         <v>4</v>
       </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
         <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
       </c>
       <c r="D13">
         <v>4</v>
       </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>130</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16">
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="F16" t="s">
         <v>38</v>
       </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="F16" t="s">
-        <v>136</v>
+      <c r="G16" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
         <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>160</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
         <v>41</v>
-      </c>
-      <c r="C18" t="s">
-        <v>32</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
       <c r="F18" t="s">
         <v>42</v>
       </c>
+      <c r="G18" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
         <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D19">
         <v>2</v>
       </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
       <c r="F19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>137</v>
+        <v>38</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F20" t="s">
         <v>46</v>
       </c>
-      <c r="C20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
+      <c r="G20" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>47</v>
       </c>
       <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
         <v>48</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="F21" t="s">
-        <v>49</v>
-      </c>
       <c r="G21" s="2" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
       <c r="F22" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" t="s">
         <v>52</v>
       </c>
-      <c r="C23" t="s">
-        <v>32</v>
-      </c>
       <c r="D23">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="F23" t="s">
         <v>53</v>
       </c>
+      <c r="G23" s="2" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
         <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="F24" t="s">
         <v>55</v>
       </c>
+      <c r="G24" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
         <v>56</v>
@@ -1322,113 +1599,131 @@
       <c r="D25">
         <v>1</v>
       </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="F25" t="s">
         <v>58</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
         <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="F26" t="s">
-        <v>60</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>161</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="F27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="F28" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="F29" t="s">
-        <v>69</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>159</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="F30" t="s">
         <v>72</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>158</v>
-      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
         <v>73</v>
@@ -1439,47 +1734,62 @@
       <c r="D31">
         <v>1</v>
       </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="F31" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
         <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="F32" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="F33" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s">
         <v>81</v>
@@ -1490,315 +1800,386 @@
       <c r="D34">
         <v>1</v>
       </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="F34" t="s">
         <v>83</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35" t="s">
         <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
-      <c r="F35" t="s">
-        <v>85</v>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F35">
+        <v>120</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>159</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="E36">
+        <f>D36*$C$57</f>
+        <v>96</v>
       </c>
       <c r="F36" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>120</v>
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F37" t="s">
+        <v>87</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D38">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="F38" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="F39" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="F40" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="F41" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
-      <c r="F42" t="s">
-        <v>99</v>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F42">
+        <v>220</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="F43" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F44" t="s">
         <v>102</v>
       </c>
-      <c r="C44" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>220</v>
-      </c>
       <c r="G44" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s">
         <v>103</v>
       </c>
       <c r="C45" t="s">
+        <v>101</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
         <v>104</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="F45" t="s">
-        <v>105</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" t="s">
+        <v>101</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
         <v>106</v>
-      </c>
-      <c r="C46" t="s">
-        <v>107</v>
-      </c>
-      <c r="D46">
-        <v>4</v>
-      </c>
-      <c r="F46" t="s">
-        <v>108</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C47" t="s">
-        <v>107</v>
+        <v>101</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C48" t="s">
-        <v>107</v>
+        <v>5</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="F48" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" t="s">
+        <v>112</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F49" t="s">
         <v>113</v>
       </c>
-      <c r="C49" t="s">
-        <v>107</v>
-      </c>
-      <c r="F49" t="s">
-        <v>114</v>
+      <c r="G49" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50" t="s">
+        <v>114</v>
+      </c>
+      <c r="C50" t="s">
         <v>115</v>
-      </c>
-      <c r="C50" t="s">
-        <v>6</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="F50" t="s">
         <v>116</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51" t="s">
         <v>117</v>
@@ -1809,16 +2190,20 @@
       <c r="D51">
         <v>1</v>
       </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="F51" t="s">
         <v>119</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52" t="s">
         <v>120</v>
@@ -1829,126 +2214,852 @@
       <c r="D52">
         <v>1</v>
       </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="F52" t="s">
         <v>122</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53" t="s">
         <v>123</v>
       </c>
       <c r="C53" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="F53" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" t="s">
         <v>126</v>
-      </c>
-      <c r="C54" t="s">
-        <v>127</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="F54" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>56</v>
-      </c>
-      <c r="B55" t="s">
-        <v>129</v>
-      </c>
-      <c r="C55" t="s">
-        <v>127</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="F55" t="s">
-        <v>130</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>57</v>
-      </c>
-      <c r="B56" t="s">
-        <v>131</v>
-      </c>
-      <c r="C56" t="s">
-        <v>132</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="F56" t="s">
-        <v>133</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>182</v>
+      </c>
+      <c r="C57">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G19" r:id="rId1"/>
-    <hyperlink ref="G53" r:id="rId2"/>
-    <hyperlink ref="G10" r:id="rId3"/>
-    <hyperlink ref="G54" r:id="rId4"/>
-    <hyperlink ref="G55" r:id="rId5"/>
-    <hyperlink ref="G56" r:id="rId6"/>
-    <hyperlink ref="G51" r:id="rId7"/>
-    <hyperlink ref="G52" r:id="rId8"/>
-    <hyperlink ref="G50" r:id="rId9"/>
-    <hyperlink ref="G46" r:id="rId10"/>
-    <hyperlink ref="G45" r:id="rId11"/>
-    <hyperlink ref="G44" r:id="rId12"/>
-    <hyperlink ref="G43" r:id="rId13"/>
-    <hyperlink ref="G42" r:id="rId14"/>
-    <hyperlink ref="G41" r:id="rId15"/>
-    <hyperlink ref="G40" r:id="rId16"/>
-    <hyperlink ref="G39" r:id="rId17"/>
-    <hyperlink ref="G38" r:id="rId18"/>
-    <hyperlink ref="G37" r:id="rId19"/>
-    <hyperlink ref="G36" r:id="rId20"/>
-    <hyperlink ref="G34" r:id="rId21"/>
-    <hyperlink ref="G30" r:id="rId22"/>
-    <hyperlink ref="G29" r:id="rId23"/>
-    <hyperlink ref="G27" r:id="rId24"/>
-    <hyperlink ref="G11" r:id="rId25"/>
-    <hyperlink ref="G26" r:id="rId26"/>
-    <hyperlink ref="G2" r:id="rId27"/>
-    <hyperlink ref="G5" r:id="rId28"/>
-    <hyperlink ref="G21" r:id="rId29"/>
-    <hyperlink ref="G25" r:id="rId30"/>
-    <hyperlink ref="G12" r:id="rId31"/>
+    <hyperlink ref="G18" r:id="rId1"/>
+    <hyperlink ref="G51" r:id="rId2"/>
+    <hyperlink ref="G9" r:id="rId3"/>
+    <hyperlink ref="G52" r:id="rId4"/>
+    <hyperlink ref="G53" r:id="rId5"/>
+    <hyperlink ref="G54" r:id="rId6"/>
+    <hyperlink ref="G49" r:id="rId7"/>
+    <hyperlink ref="G50" r:id="rId8"/>
+    <hyperlink ref="G48" r:id="rId9"/>
+    <hyperlink ref="G44" r:id="rId10"/>
+    <hyperlink ref="G43" r:id="rId11"/>
+    <hyperlink ref="G42" r:id="rId12"/>
+    <hyperlink ref="G41" r:id="rId13"/>
+    <hyperlink ref="G40" r:id="rId14"/>
+    <hyperlink ref="G39" r:id="rId15"/>
+    <hyperlink ref="G38" r:id="rId16"/>
+    <hyperlink ref="G37" r:id="rId17"/>
+    <hyperlink ref="G36" r:id="rId18"/>
+    <hyperlink ref="G35" r:id="rId19"/>
+    <hyperlink ref="G34" r:id="rId20"/>
+    <hyperlink ref="G32" r:id="rId21"/>
+    <hyperlink ref="G28" r:id="rId22"/>
+    <hyperlink ref="G27" r:id="rId23"/>
+    <hyperlink ref="G25" r:id="rId24"/>
+    <hyperlink ref="G10" r:id="rId25"/>
+    <hyperlink ref="G24" r:id="rId26"/>
+    <hyperlink ref="G4" r:id="rId27"/>
+    <hyperlink ref="G20" r:id="rId28"/>
+    <hyperlink ref="G23" r:id="rId29"/>
+    <hyperlink ref="G11" r:id="rId30"/>
+    <hyperlink ref="G8" r:id="rId31"/>
+    <hyperlink ref="G15" r:id="rId32"/>
+    <hyperlink ref="G16" r:id="rId33"/>
+    <hyperlink ref="G17" r:id="rId34"/>
+    <hyperlink ref="G14" r:id="rId35"/>
+    <hyperlink ref="G13" r:id="rId36"/>
+    <hyperlink ref="G12" r:id="rId37"/>
+    <hyperlink ref="G19" r:id="rId38"/>
+    <hyperlink ref="G21" r:id="rId39"/>
+    <hyperlink ref="G22" r:id="rId40"/>
+    <hyperlink ref="G7" r:id="rId41"/>
+    <hyperlink ref="G6" r:id="rId42"/>
+    <hyperlink ref="G5" r:id="rId43"/>
+    <hyperlink ref="G3" r:id="rId44"/>
+    <hyperlink ref="G2" r:id="rId45"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="75" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="32" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="3"/>
+    <col min="4" max="4" width="132" customWidth="1"/>
+    <col min="5" max="5" width="41.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" s="3">
+        <v>100</v>
+      </c>
+      <c r="C6" s="3">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B8" s="3">
+        <v>120</v>
+      </c>
+      <c r="C8" s="4">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="3">
+        <v>96</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="3">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="3">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>181</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="3">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>181</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="3">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="3">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" s="3">
+        <v>220</v>
+      </c>
+      <c r="C15" s="3">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C17" s="3">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="3">
+        <f>54</f>
+        <v>54</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="3">
+        <v>24</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="3">
+        <v>10</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="3">
+        <v>24</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="3">
+        <v>24</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="3">
+        <v>12</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" s="3">
+        <v>12</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="3">
+        <v>66</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" s="3">
+        <v>12</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="3">
+        <v>12</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="3">
+        <v>12</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="3">
+        <v>12</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="3">
+        <v>12</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C33" s="3">
+        <v>6</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>188</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C37" s="3">
+        <v>6</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>190</v>
+      </c>
+      <c r="C38" s="3">
+        <v>6</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>186</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C39" s="3">
+        <v>24</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>183</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C40" s="3">
+        <v>12</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>197</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C41" s="3">
+        <v>6</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>206</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C42" s="3">
+        <v>5</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>206</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C43" s="3">
+        <v>10</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C45" s="3">
+        <v>6</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>126</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C46" s="3">
+        <v>6</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" s="3">
+        <v>6</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>124</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48" s="3">
+        <v>6</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>195</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" s="3">
+        <v>6</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C50" s="3">
+        <v>6</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C51" s="3">
+        <v>6</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>119</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" s="3">
+        <v>6</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>185</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="3">
+        <v>12</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1"/>
+    <hyperlink ref="D7" r:id="rId2"/>
+    <hyperlink ref="D6" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D3" r:id="rId5"/>
+    <hyperlink ref="D2" r:id="rId6"/>
+    <hyperlink ref="D53" r:id="rId7"/>
+    <hyperlink ref="D40" r:id="rId8"/>
+    <hyperlink ref="D19" r:id="rId9"/>
+    <hyperlink ref="D29" r:id="rId10"/>
+    <hyperlink ref="D20" r:id="rId11"/>
+    <hyperlink ref="D26" r:id="rId12"/>
+    <hyperlink ref="D27" r:id="rId13"/>
+    <hyperlink ref="D28" r:id="rId14"/>
+    <hyperlink ref="D25" r:id="rId15"/>
+    <hyperlink ref="D24" r:id="rId16"/>
+    <hyperlink ref="D23" r:id="rId17"/>
+    <hyperlink ref="D30" r:id="rId18"/>
+    <hyperlink ref="D31" r:id="rId19"/>
+    <hyperlink ref="D32" r:id="rId20"/>
+    <hyperlink ref="D39" r:id="rId21"/>
+    <hyperlink ref="D15" r:id="rId22"/>
+    <hyperlink ref="D14" r:id="rId23"/>
+    <hyperlink ref="D13" r:id="rId24"/>
+    <hyperlink ref="D12" r:id="rId25"/>
+    <hyperlink ref="D11" r:id="rId26"/>
+    <hyperlink ref="D10" r:id="rId27"/>
+    <hyperlink ref="D9" r:id="rId28"/>
+    <hyperlink ref="D8" r:id="rId29"/>
+    <hyperlink ref="D37" r:id="rId30"/>
+    <hyperlink ref="D21" r:id="rId31"/>
+    <hyperlink ref="D38" r:id="rId32"/>
+    <hyperlink ref="D45" r:id="rId33"/>
+    <hyperlink ref="D46" r:id="rId34"/>
+    <hyperlink ref="D17" r:id="rId35"/>
+    <hyperlink ref="D47" r:id="rId36"/>
+    <hyperlink ref="D48" r:id="rId37"/>
+    <hyperlink ref="D49" r:id="rId38"/>
+    <hyperlink ref="D50" r:id="rId39"/>
+    <hyperlink ref="D41" r:id="rId40"/>
+    <hyperlink ref="D16" r:id="rId41"/>
+    <hyperlink ref="D51" r:id="rId42"/>
+    <hyperlink ref="D33" r:id="rId43"/>
+    <hyperlink ref="D52" r:id="rId44"/>
+    <hyperlink ref="D42" r:id="rId45"/>
+    <hyperlink ref="D43" r:id="rId46"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Arm_stepper_BOM.xlsx
+++ b/Arm_stepper_BOM.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="25600" windowHeight="14260" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Arm_stepper" sheetId="1" r:id="rId1"/>
     <sheet name="buy " sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -998,7 +998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView zoomScale="68" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -2337,7 +2337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="75" workbookViewId="0">
+    <sheetView zoomScale="75" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
